--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1045345.7890267</v>
+        <v>-1047905.059594256</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91.65129428456723</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>240.7827065919574</v>
       </c>
       <c r="H2" t="n">
         <v>295.0640301736143</v>
@@ -710,13 +710,13 @@
         <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736414</v>
+        <v>9.512185486736385</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>80.09074736558614</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004823</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104685</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.83072347163693</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>182.9815793570026</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>225.7512692123569</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>80.52364118380321</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>60.61620153653796</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>63.59188575497808</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>34.74121858533989</v>
       </c>
       <c r="T8" t="n">
-        <v>83.41905814111034</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>67.14052909610463</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>179.0533986308652</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>98.03921036659378</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>231.5999924959152</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>20.72279572932636</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0612007923064</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060622</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>67.97896981790525</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>28.23631843387973</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2369,7 +2369,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>32.27552175740375</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>3.006892987834505</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223599</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788180381</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179972</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652659</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261737</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,10 +4195,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1160.244291423857</v>
+        <v>1403.459146567249</v>
       </c>
       <c r="C2" t="n">
-        <v>1160.244291423857</v>
+        <v>1403.459146567249</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.244291423857</v>
+        <v>1403.459146567248</v>
       </c>
       <c r="E2" t="n">
-        <v>774.4560388256126</v>
+        <v>1017.670893969004</v>
       </c>
       <c r="F2" t="n">
-        <v>363.470134036005</v>
+        <v>606.6849891793964</v>
       </c>
       <c r="G2" t="n">
         <v>363.470134036005</v>
       </c>
       <c r="H2" t="n">
-        <v>65.4256591131623</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="I2" t="n">
-        <v>65.4256591131623</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725627</v>
+        <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183942</v>
+        <v>578.7702206183949</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887444</v>
+        <v>1022.844136887446</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064181</v>
+        <v>1548.631370064183</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746178</v>
+        <v>2087.540198746181</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767914</v>
+        <v>2583.081262767916</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303803</v>
+        <v>2971.513095303805</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301</v>
+        <v>3215.036478301002</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658115</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007345</v>
+        <v>3159.966809007347</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077311</v>
+        <v>3159.966809007347</v>
       </c>
       <c r="U2" t="n">
-        <v>2700.257989208339</v>
+        <v>2906.432732138376</v>
       </c>
       <c r="V2" t="n">
-        <v>2369.195101864769</v>
+        <v>2906.432732138376</v>
       </c>
       <c r="W2" t="n">
-        <v>2016.426446594655</v>
+        <v>2553.664076868262</v>
       </c>
       <c r="X2" t="n">
-        <v>1642.960688333575</v>
+        <v>2180.198318607182</v>
       </c>
       <c r="Y2" t="n">
-        <v>1252.821356357763</v>
+        <v>1790.05898663137</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1555434292419</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841081</v>
+        <v>165.7683651841082</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158292</v>
+        <v>75.03392728158295</v>
       </c>
       <c r="I3" t="n">
-        <v>65.4256591131623</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056104</v>
+        <v>156.8733478056105</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794816</v>
+        <v>391.3268380794819</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656269</v>
+        <v>752.9010302656275</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366257</v>
+        <v>1194.197926366258</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.583283102521</v>
+        <v>1661.583283102522</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.929778176382</v>
+        <v>2066.929778176383</v>
       </c>
       <c r="P3" t="n">
-        <v>2372.923010208137</v>
+        <v>2372.923010208138</v>
       </c>
       <c r="Q3" t="n">
-        <v>2555.226205362918</v>
+        <v>2527.552185906364</v>
       </c>
       <c r="R3" t="n">
         <v>2555.226205362918</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2456.022482647941</v>
+        <v>1913.663355924396</v>
       </c>
       <c r="C4" t="n">
-        <v>2287.086299720034</v>
+        <v>1744.727172996489</v>
       </c>
       <c r="D4" t="n">
-        <v>2136.969660307698</v>
+        <v>1744.727172996489</v>
       </c>
       <c r="E4" t="n">
-        <v>1989.056566725305</v>
+        <v>1744.727172996489</v>
       </c>
       <c r="F4" t="n">
-        <v>1842.166619227395</v>
+        <v>1597.837225498579</v>
       </c>
       <c r="G4" t="n">
-        <v>1674.443596350562</v>
+        <v>1430.114202621746</v>
       </c>
       <c r="H4" t="n">
-        <v>1528.046935440984</v>
+        <v>1430.114202621746</v>
       </c>
       <c r="I4" t="n">
-        <v>1430.114202621745</v>
+        <v>1430.114202621746</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726844</v>
+        <v>1473.838067726845</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248734</v>
+        <v>1675.526646248736</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412494</v>
+        <v>1989.145022412496</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630625</v>
+        <v>2330.200750630627</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.581552350617</v>
+        <v>2668.581552350619</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744366</v>
+        <v>2965.114695744368</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.329345372343</v>
+        <v>3195.329345372345</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658115</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="R4" t="n">
-        <v>3271.282955658115</v>
+        <v>3180.544851141312</v>
       </c>
       <c r="S4" t="n">
-        <v>3271.282955658115</v>
+        <v>2988.507175656999</v>
       </c>
       <c r="T4" t="n">
-        <v>3271.282955658115</v>
+        <v>2766.654309878984</v>
       </c>
       <c r="U4" t="n">
-        <v>3086.453077519728</v>
+        <v>2766.654309878984</v>
       </c>
       <c r="V4" t="n">
-        <v>3086.453077519728</v>
+        <v>2511.969821673098</v>
       </c>
       <c r="W4" t="n">
-        <v>3086.453077519728</v>
+        <v>2222.552651636137</v>
       </c>
       <c r="X4" t="n">
-        <v>2858.463526621711</v>
+        <v>1994.56310073812</v>
       </c>
       <c r="Y4" t="n">
-        <v>2637.670947478181</v>
+        <v>1994.56310073812</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1506.363819949361</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1137.401303008949</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>1137.401303008949</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>751.613050410705</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3244.2688103124</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2990.738333586236</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2659.675446242666</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2306.906790972551</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2306.906790972551</v>
       </c>
       <c r="Y5" t="n">
-        <v>1892.963660013483</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>590.8070661251691</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C7" t="n">
-        <v>421.8708831972622</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D7" t="n">
-        <v>421.8708831972622</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E7" t="n">
-        <v>273.9577896148691</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>273.9577896148691</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>273.9577896148691</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>127.7406028327268</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1070.674496332685</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>781.2573262957244</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251691</v>
+        <v>553.2677753977071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1917.382287315189</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3290.513681623979</v>
       </c>
       <c r="T8" t="n">
-        <v>3241.34414671916</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="U8" t="n">
-        <v>2987.813669992996</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="V8" t="n">
-        <v>2656.750782649426</v>
+        <v>3084.535934008201</v>
       </c>
       <c r="W8" t="n">
-        <v>2303.982127379311</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X8" t="n">
-        <v>2303.982127379311</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.982127379311</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>843.6062662746817</v>
+        <v>531.7821255545682</v>
       </c>
       <c r="C10" t="n">
-        <v>843.6062662746817</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D10" t="n">
-        <v>693.489626862346</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E10" t="n">
-        <v>545.5765332799529</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1524.665913838963</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1269.981425633076</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.595817172699</v>
+        <v>980.5642555961157</v>
       </c>
       <c r="X10" t="n">
-        <v>843.6062662746817</v>
+        <v>752.5747046980983</v>
       </c>
       <c r="Y10" t="n">
-        <v>843.6062662746817</v>
+        <v>531.7821255545682</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,13 +5039,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5118,13 +5118,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
         <v>716.6687843969308</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>800.5007694647286</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835329</v>
+        <v>631.5645865368217</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>481.4479471244859</v>
       </c>
       <c r="E13" t="n">
-        <v>549.614540988804</v>
+        <v>481.4479471244859</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>334.5579996265756</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1963.123159128057</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1708.43867092217</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1419.02150088521</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741679</v>
+        <v>982.1492342949683</v>
       </c>
     </row>
     <row r="14">
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532803</v>
+        <v>870.3164745246294</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>701.3802915967225</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>551.2636521843867</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>403.3505586019936</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>256.4606111040832</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,13 +5437,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.30903818352</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>847.6442739835329</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>847.6442739835329</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038362</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797763</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2311.25175375397</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583152</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,10 +5908,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138412</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098241</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819172</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695812</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>264.0500279773692</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>264.0500279773692</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>96.85392869224916</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640064</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188007</v>
+        <v>580.8993044876689</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>411.963121559762</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925705</v>
+        <v>983.3403484614388</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490404</v>
+        <v>762.5477693179087</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,16 +6458,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384028</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954146</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380725</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,34 +6871,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319333</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656827</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,22 +7564,22 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7588,10 +7588,10 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.953555006621</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780338</v>
+        <v>29.57646828340013</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>291.0825473789133</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>170.1835708287406</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962369</v>
+        <v>43.2945117796236</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>99.74123281635116</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163696</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>103.2313489061941</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>67.48492792567507</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185643</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>54.58448189332899</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.615473018213</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>144.8013425629425</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.52345255978841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610384</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>149.426480509383</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>120.3791545843326</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>114.1584408891654</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>137.2878198583894</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.4693302300329</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194127</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194262</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.087130385712953e-12</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1026597.326693224</v>
+        <v>1026597.326693225</v>
       </c>
     </row>
     <row r="3">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943218</v>
+        <v>169252.1408943219</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="F2" t="n">
         <v>201786.6499225015</v>
-      </c>
-      <c r="F2" t="n">
-        <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
         <v>201786.6499225016</v>
@@ -26335,13 +26335,13 @@
         <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225014</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="M2" t="n">
         <v>205260.442466071</v>
@@ -26350,7 +26350,7 @@
         <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081206</v>
+        <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074643</v>
+        <v>14479.0523207458</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.889412553</v>
+        <v>213977.8894125529</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022872</v>
+        <v>3495.241841022697</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363163</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11698.02956068581</v>
+        <v>11698.02956068579</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26430,34 +26430,34 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="L4" t="n">
         <v>19157.89151488699</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.891514887</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.891514887</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488705</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488697</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1262827.061650682</v>
+        <v>-1263187.1446664</v>
       </c>
       <c r="C6" t="n">
-        <v>-7506.617439213747</v>
+        <v>-7506.617439213209</v>
       </c>
       <c r="D6" t="n">
         <v>6972.434881532652</v>
       </c>
       <c r="E6" t="n">
-        <v>-235915.3739605543</v>
+        <v>-235950.1118859899</v>
       </c>
       <c r="F6" t="n">
-        <v>89497.08784680093</v>
+        <v>89462.34992136518</v>
       </c>
       <c r="G6" t="n">
-        <v>89497.08784680096</v>
+        <v>89462.34992136527</v>
       </c>
       <c r="H6" t="n">
-        <v>89497.08784680067</v>
+        <v>89462.34992136501</v>
       </c>
       <c r="I6" t="n">
-        <v>89497.0878468009</v>
+        <v>89462.34992136518</v>
       </c>
       <c r="J6" t="n">
-        <v>-124480.8015657522</v>
+        <v>-124515.5394911877</v>
       </c>
       <c r="K6" t="n">
-        <v>86001.84600577802</v>
+        <v>85967.1080803425</v>
       </c>
       <c r="L6" t="n">
-        <v>63510.71710363694</v>
+        <v>63510.71710363674</v>
       </c>
       <c r="M6" t="n">
-        <v>-2116.592838243261</v>
+        <v>-2116.592838243247</v>
       </c>
       <c r="N6" t="n">
+        <v>82938.43509726849</v>
+      </c>
+      <c r="O6" t="n">
+        <v>82938.43509726852</v>
+      </c>
+      <c r="P6" t="n">
         <v>82938.43509726855</v>
-      </c>
-      <c r="O6" t="n">
-        <v>82938.43509726854</v>
-      </c>
-      <c r="P6" t="n">
-        <v>82938.43509726852</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145288</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209616</v>
+        <v>11.08225210209571</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145288</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776411</v>
+        <v>13.58071648776342</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145289</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776411</v>
+        <v>13.58071648776342</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145288</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776411</v>
+        <v>13.58071648776342</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>181.1247765293545</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>123.3943289558169</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>35.73621887330012</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>188.5457575688499</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>74.44654320283595</v>
       </c>
       <c r="T8" t="n">
-        <v>120.4989119985098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>78.28051892682662</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>107.1584395747477</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.727671437857008e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.236344360222574e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.33646009443699</v>
+        <v>4.336460094436992</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215283</v>
+        <v>44.41077194215286</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907822</v>
+        <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402219</v>
+        <v>368.051629940222</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377398</v>
+        <v>551.61398573774</v>
       </c>
       <c r="L2" t="n">
-        <v>684.325926352866</v>
+        <v>684.3259263528662</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573097</v>
+        <v>761.44444855731</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006288</v>
+        <v>773.7654158006292</v>
       </c>
       <c r="O2" t="n">
-        <v>730.644740736571</v>
+        <v>730.6447407365713</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551577</v>
+        <v>623.588382155158</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231328</v>
+        <v>468.2889050231331</v>
       </c>
       <c r="R2" t="n">
-        <v>272.4001614071778</v>
+        <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198301</v>
+        <v>98.81708440198305</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339793</v>
+        <v>18.98285406339794</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549591</v>
+        <v>0.3469168075549593</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528246</v>
+        <v>2.320210700528247</v>
       </c>
       <c r="H3" t="n">
         <v>22.40835071299649</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467866</v>
+        <v>79.88444736467869</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863112</v>
+        <v>219.2090293863113</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217037</v>
+        <v>374.6631463217038</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335563</v>
+        <v>503.7808365335565</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277051</v>
+        <v>587.8884744277053</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290547</v>
+        <v>603.4481330290549</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594551</v>
+        <v>552.0371485594553</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736789</v>
+        <v>443.0584801736791</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498863</v>
+        <v>296.1728606498864</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871836</v>
+        <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612603998</v>
+        <v>43.09689612604</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164287</v>
+        <v>9.352077341164291</v>
       </c>
       <c r="U3" t="n">
         <v>0.1526454408242268</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393971</v>
+        <v>1.945186710393972</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695732</v>
+        <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621143</v>
+        <v>58.49706943621145</v>
       </c>
       <c r="J4" t="n">
-        <v>137.5247004248537</v>
+        <v>137.5247004248538</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166813</v>
+        <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889364</v>
+        <v>289.1962132889365</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120294</v>
+        <v>304.9168586120296</v>
       </c>
       <c r="N4" t="n">
-        <v>297.6666172369249</v>
+        <v>297.666617236925</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564134</v>
+        <v>274.9432997564135</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643762</v>
+        <v>235.2614908643763</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221715</v>
+        <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553253</v>
+        <v>87.46266790553256</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750219</v>
+        <v>33.8992993075022</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046964</v>
+        <v>8.311252308046967</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942167</v>
+        <v>0.1061010932942168</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32242,7 +32242,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,16 +32783,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,16 +33263,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135356</v>
+        <v>187.0057254135357</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927592</v>
+        <v>331.5241346927594</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828787</v>
+        <v>448.559511382879</v>
       </c>
       <c r="M2" t="n">
-        <v>531.098215330037</v>
+        <v>531.0982153300373</v>
       </c>
       <c r="N2" t="n">
-        <v>544.352352204038</v>
+        <v>544.3523522040382</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148842</v>
+        <v>500.5465293148845</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998881</v>
+        <v>392.3553863998885</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486833</v>
+        <v>245.9832151486836</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304572</v>
+        <v>56.81462359304584</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964452</v>
+        <v>92.37140271964461</v>
       </c>
       <c r="K3" t="n">
-        <v>236.8217073473447</v>
+        <v>236.8217073473448</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536821</v>
+        <v>365.2264567536823</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056868</v>
+        <v>445.754440505687</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457214</v>
+        <v>472.1064209457217</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150107</v>
+        <v>409.4409041150109</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593487</v>
+        <v>309.0840727593488</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1446415704858</v>
+        <v>156.1910865638649</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>27.95355500661985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818096</v>
+        <v>44.16552030818102</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907984</v>
+        <v>203.7258368907985</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492525</v>
+        <v>316.7862385492526</v>
       </c>
       <c r="M4" t="n">
-        <v>344.50073557387</v>
+        <v>344.5007355738701</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161535</v>
+        <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
-        <v>299.528427670453</v>
+        <v>299.5284276704531</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292696</v>
+        <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047714</v>
+        <v>76.7208184704772</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066246</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096369</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,13 +36914,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
